--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_WBV_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_WBV_control_by_struct.xlsx
@@ -483,15 +483,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3194971056703839</v>
+        <v>-0.3114217415346798</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.394, -0.245]</t>
+          <t>[-0.386, -0.237]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.737462753624644e-16</v>
+        <v>9.04245772323367e-16</v>
       </c>
     </row>
     <row r="4">
@@ -614,15 +614,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4274231553907274</v>
+        <v>-0.4205447289157257</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.507, -0.348]</t>
+          <t>[-0.5, -0.341]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.3353323588278e-25</v>
+        <v>1.427829421987141e-24</v>
       </c>
     </row>
     <row r="4">
@@ -745,15 +745,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2413605782525843</v>
+        <v>-0.2329966538435293</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.313, -0.169]</t>
+          <t>[-0.305, -0.161]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.517254269345384e-10</v>
+        <v>1.446078167487749e-09</v>
       </c>
     </row>
     <row r="4">
@@ -876,15 +876,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3619950721613822</v>
+        <v>-0.3501520904421128</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.448, -0.276]</t>
+          <t>[-0.437, -0.263]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.330414683893751e-16</v>
+        <v>1.29121775327424e-14</v>
       </c>
     </row>
     <row r="4">
